--- a/Port_Boundaries.xlsx
+++ b/Port_Boundaries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Marine Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65E1FF4-B5F1-4E4C-9773-F651A61C9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1526D005-262A-427D-B5C4-5B9C4A8F29BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE718321-A8E1-4467-B811-F97134C7AF4F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t xml:space="preserve">Longitude (dd) </t>
   </si>
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12CB53F-C98E-4C74-B7A3-7018B17E8D4B}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,10 +589,12 @@
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
     <col min="13" max="13" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -618,8 +620,14 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -647,8 +655,14 @@
       <c r="I2">
         <v>42.409265499999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>-70.933601800000005</v>
+      </c>
+      <c r="K2">
+        <v>42.376086200000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -676,8 +690,14 @@
       <c r="I3">
         <v>32.685904800000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>-80.034852799999996</v>
+      </c>
+      <c r="K3">
+        <v>32.839111600000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -705,8 +725,14 @@
       <c r="I4">
         <v>32.086520899999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>-80.874344899999997</v>
+      </c>
+      <c r="K4">
+        <v>32.011778100000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -734,8 +760,14 @@
       <c r="I5">
         <v>45.457342500000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>-124.0801654</v>
+      </c>
+      <c r="K5">
+        <v>46.1678839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -763,8 +795,14 @@
       <c r="I6">
         <v>45.879638800000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>-124.0801654</v>
+      </c>
+      <c r="K6">
+        <v>46.1678839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -792,8 +830,14 @@
       <c r="I7">
         <v>47.475427400000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>-124.8027493</v>
+      </c>
+      <c r="K7">
+        <v>48.371752700000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -821,8 +865,14 @@
       <c r="I8">
         <v>60.954212699999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>-146.7669693</v>
+      </c>
+      <c r="K8">
+        <v>61.090497999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -850,8 +900,14 @@
       <c r="I9">
         <v>18.484665799999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>-66.0801333</v>
+      </c>
+      <c r="K9">
+        <v>18.462841300000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -879,8 +935,14 @@
       <c r="I10">
         <v>39.138265599999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>-84.4172516</v>
+      </c>
+      <c r="K10">
+        <v>39.122595400000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -908,8 +970,14 @@
       <c r="I11">
         <v>38.4526714</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>-90.197091599999993</v>
+      </c>
+      <c r="K11">
+        <v>38.9059879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -937,8 +1005,14 @@
       <c r="I12">
         <v>37.778807100000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>-87.965675500000003</v>
+      </c>
+      <c r="K12">
+        <v>37.9215789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -966,8 +1040,14 @@
       <c r="I13">
         <v>41.607317700000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>-87.226410299999998</v>
+      </c>
+      <c r="K13">
+        <v>41.686890400000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -995,8 +1075,14 @@
       <c r="I14">
         <v>39.202269399999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>-81.696454399999993</v>
+      </c>
+      <c r="K14">
+        <v>39.337639899999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1024,8 +1110,14 @@
       <c r="I15">
         <v>33.886777500000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>-77.993595900000003</v>
+      </c>
+      <c r="K15">
+        <v>34.268169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1053,8 +1145,14 @@
       <c r="I16">
         <v>28.9617462</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>-90.654695799999999</v>
+      </c>
+      <c r="K16">
+        <v>30.014219799999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1082,8 +1180,14 @@
       <c r="I17">
         <v>29.041348500000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>-91.374369000000002</v>
+      </c>
+      <c r="K17">
+        <v>30.193656099999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1111,8 +1215,14 @@
       <c r="I18">
         <v>28.9488974</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>-90.183908099999996</v>
+      </c>
+      <c r="K18">
+        <v>29.91047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1140,8 +1250,14 @@
       <c r="I19">
         <v>29.746495199999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>-89.977493899999999</v>
+      </c>
+      <c r="K19">
+        <v>29.919269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1169,8 +1285,14 @@
       <c r="I20">
         <v>29.7479072</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>-93.438086900000002</v>
+      </c>
+      <c r="K20">
+        <v>30.246437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1198,8 +1320,14 @@
       <c r="I21">
         <v>38.9098781</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>-82.089932200000007</v>
+      </c>
+      <c r="K21">
+        <v>38.703680599999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1227,8 +1355,14 @@
       <c r="I22">
         <v>30.274413299999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>-81.693348599999993</v>
+      </c>
+      <c r="K22">
+        <v>30.464229799999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1256,8 +1390,14 @@
       <c r="I23">
         <v>27.613286899999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>-82.434623700000003</v>
+      </c>
+      <c r="K23">
+        <v>27.994347600000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1285,8 +1425,14 @@
       <c r="I24">
         <v>60.320406300000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>-149.8817478</v>
+      </c>
+      <c r="K24">
+        <v>61.807791700000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1314,8 +1460,14 @@
       <c r="I25">
         <v>21.252037600000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>-157.9259706</v>
+      </c>
+      <c r="K25">
+        <v>21.309538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1343,8 +1495,14 @@
       <c r="I26">
         <v>26.070188300000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>-80.129967500000006</v>
+      </c>
+      <c r="K26">
+        <v>26.1385583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1372,8 +1530,14 @@
       <c r="I27">
         <v>26.672899699999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <v>-80.060762800000006</v>
+      </c>
+      <c r="K27">
+        <v>26.7984841</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1401,8 +1565,14 @@
       <c r="I28">
         <v>25.691360899999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>-80.232837900000007</v>
+      </c>
+      <c r="K28">
+        <v>25.733136300000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1430,8 +1600,14 @@
       <c r="I29">
         <v>30.374353299999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29">
+        <v>-88.486686599999999</v>
+      </c>
+      <c r="K29">
+        <v>30.374088199999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1459,8 +1635,14 @@
       <c r="I30">
         <v>30.304933599999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30">
+        <v>-88.637862600000005</v>
+      </c>
+      <c r="K30">
+        <v>30.426814</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1488,8 +1670,14 @@
       <c r="I31">
         <v>46.616581600000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <v>-92.153708699999996</v>
+      </c>
+      <c r="K31">
+        <v>46.7879857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1705,14 @@
       <c r="I32">
         <v>34.122123899999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>-119.2907453</v>
+      </c>
+      <c r="K32">
+        <v>34.2057693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1546,8 +1740,14 @@
       <c r="I33">
         <v>37.760720300000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>-122.2747403</v>
+      </c>
+      <c r="K33">
+        <v>37.964292700000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1575,8 +1775,14 @@
       <c r="I34">
         <v>37.855707199999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>-122.45669599999999</v>
+      </c>
+      <c r="K34">
+        <v>38.155668499999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1604,8 +1810,14 @@
       <c r="I35">
         <v>33.686133099999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>-118.22343410000001</v>
+      </c>
+      <c r="K35">
+        <v>33.829485699999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1633,8 +1845,14 @@
       <c r="I36">
         <v>33.684018899999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>-118.297904</v>
+      </c>
+      <c r="K36">
+        <v>33.780103099999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1662,8 +1880,14 @@
       <c r="I37">
         <v>39.006257499999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>-75.503089799999998</v>
+      </c>
+      <c r="K37">
+        <v>40.035760400000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1691,8 +1915,14 @@
       <c r="I38">
         <v>38.957743800000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>-75.456514299999995</v>
+      </c>
+      <c r="K38">
+        <v>40.172044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1720,8 +1950,14 @@
       <c r="I39">
         <v>38.545068800000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>-75.774706800000004</v>
+      </c>
+      <c r="K39">
+        <v>39.6698442</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1749,8 +1985,14 @@
       <c r="I40">
         <v>29.420438799999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>-94.707774200000003</v>
+      </c>
+      <c r="K40">
+        <v>29.404294700000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1778,8 +2020,14 @@
       <c r="I41">
         <v>27.438758199999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>-97.189478500000007</v>
+      </c>
+      <c r="K41">
+        <v>28.188024500000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1807,8 +2055,14 @@
       <c r="I42">
         <v>29.185980099999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>-95.277142600000005</v>
+      </c>
+      <c r="K42">
+        <v>29.729426700000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1836,8 +2090,14 @@
       <c r="I43">
         <v>28.842155300000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>-95.447543100000004</v>
+      </c>
+      <c r="K43">
+        <v>28.971560400000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1865,8 +2125,14 @@
       <c r="I44">
         <v>30.334894800000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>-89.134630900000005</v>
+      </c>
+      <c r="K44">
+        <v>30.354400600000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1894,8 +2160,14 @@
       <c r="I45">
         <v>29.656955100000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <v>-93.999757500000001</v>
+      </c>
+      <c r="K45">
+        <v>29.8845788</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1923,8 +2195,14 @@
       <c r="I46">
         <v>29.616280499999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <v>-94.136546100000004</v>
+      </c>
+      <c r="K46">
+        <v>30.0800631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1952,8 +2230,14 @@
       <c r="I47">
         <v>30.206275300000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <v>-88.158993300000006</v>
+      </c>
+      <c r="K47">
+        <v>30.7386652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1981,8 +2265,14 @@
       <c r="I48">
         <v>37.122748000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <v>-75.956896900000004</v>
+      </c>
+      <c r="K48">
+        <v>37.134267100000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2010,8 +2300,14 @@
       <c r="I49">
         <v>36.900335800000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <v>-76.635994600000004</v>
+      </c>
+      <c r="K49">
+        <v>39.293566800000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2039,8 +2335,14 @@
       <c r="I50">
         <v>41.113866199999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <v>-73.776853500000001</v>
+      </c>
+      <c r="K50">
+        <v>40.3684151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H51" s="1"/>
     </row>
   </sheetData>
